--- a/academycity/data/avic/datasets/excel/conference/output/GDP/1992_Exports_o.xlsx
+++ b/academycity/data/avic/datasets/excel/conference/output/GDP/1992_Exports_o.xlsx
@@ -6420,7 +6420,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -11920,7 +11920,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -17378,7 +17378,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -22044,7 +22044,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -26671,7 +26671,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -31298,7 +31298,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -34655,7 +34655,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -40884,7 +40884,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -47224,7 +47224,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -53540,7 +53540,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -55686,7 +55686,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
     </row>
@@ -61411,7 +61411,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -63533,7 +63533,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
     </row>
@@ -68853,7 +68853,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C143" t="n">
@@ -74311,7 +74311,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C143" t="n">
